--- a/Vocabularies/EPA/epa-abg.xlsx
+++ b/Vocabularies/EPA/epa-abg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kso8/Box/Internet Of Water/Common Tools/Glossary/Vocabularies/EPA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kso8/Box/Internet Of Water/GitHub/Glossary/Vocabularies/EPA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF56E591-23FC-0040-B5DD-9E2AA6EC5A58}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA34BB6-03DC-C04C-B355-004061F10B41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="1080" windowWidth="29040" windowHeight="15840" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
+    <workbookView xWindow="860" yWindow="1080" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="459">
   <si>
     <t>Term</t>
   </si>
@@ -72,40 +72,13 @@
     <t>Water Quality</t>
   </si>
   <si>
-    <t>Water Data</t>
-  </si>
-  <si>
     <t>Water Use</t>
   </si>
   <si>
-    <t>Open Data</t>
-  </si>
-  <si>
-    <t>Water Rights</t>
-  </si>
-  <si>
-    <t>Drinking Water</t>
-  </si>
-  <si>
     <t>Ecology</t>
   </si>
   <si>
-    <t>Water Budgets</t>
-  </si>
-  <si>
     <t>Themes</t>
-  </si>
-  <si>
-    <t>Information Technology</t>
-  </si>
-  <si>
-    <t>Cloud Services</t>
-  </si>
-  <si>
-    <t>Organizations and Public Agencies</t>
-  </si>
-  <si>
-    <t>Water Law</t>
   </si>
   <si>
     <t>Publishing Agency</t>
@@ -1384,16 +1357,83 @@
   </si>
   <si>
     <t>UAA</t>
+  </si>
+  <si>
+    <t>Environment and Ecology</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Terms about specific parameters, units, and data production and dissemination</t>
+  </si>
+  <si>
+    <t>Terms about water that is withdrawn for a specific purpose, including end uses and rights/allocations</t>
+  </si>
+  <si>
+    <t>Terms about the properties, distribution and circulation of water and snow in the natural system</t>
+  </si>
+  <si>
+    <t>Legal and Regulatory</t>
+  </si>
+  <si>
+    <t>Terms about laws and regulations governing water, including quantity, quality, use, rights, and planning</t>
+  </si>
+  <si>
+    <t>Terms about drinking or environmental water chemical, physical, and biological characteristics, their  measurement and management</t>
+  </si>
+  <si>
+    <t>Terms about  conditions and influences affecting the life and development of organisms and relationships between organisms</t>
+  </si>
+  <si>
+    <t>Terms about the built environment</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Terms about entities providing drinking water, wastewater removal, and stormwater management services and the regulation thereof</t>
+  </si>
+  <si>
+    <t>ThemeDef</t>
+  </si>
+  <si>
+    <t>Environmental Protection Agency</t>
+  </si>
+  <si>
+    <t>EPA</t>
+  </si>
+  <si>
+    <t>EPA Aquatic Biodiversity Glossary</t>
+  </si>
+  <si>
+    <t>epa-abg</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>https://ofmpub.epa.gov/sor_internet/registry/termreg/searchandretrieve/glossariesandkeywordlists/search.do?details&amp;glossaryName=Aquatic+Biodiversity+Glossary</t>
+  </si>
+  <si>
+    <t>A glossary of terms used for aquatic biodiversity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1419,11 +1459,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1738,10 +1779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E542F74-ACD9-49CD-B312-AB6D05B8D550}">
-  <dimension ref="A1:H208"/>
+  <dimension ref="A1:I208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1749,9 +1790,10 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="55" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1776,2142 +1818,2178 @@
       <c r="H1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>40</v>
       </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>42</v>
       </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="C13" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>44</v>
       </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="C14" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>48</v>
       </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="C16" t="s">
         <v>49</v>
       </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" t="s">
         <v>121</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>122</v>
       </c>
-      <c r="D48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="C53" t="s">
         <v>123</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>124</v>
       </c>
-      <c r="D49" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="B54" t="s">
+        <v>430</v>
+      </c>
+      <c r="C54" t="s">
         <v>125</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
+        <v>439</v>
+      </c>
+      <c r="G54" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>126</v>
       </c>
-      <c r="D50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="C55" t="s">
         <v>127</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
+        <v>439</v>
+      </c>
+      <c r="G55" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>128</v>
       </c>
-      <c r="D51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="C56" t="s">
         <v>129</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s">
+        <v>439</v>
+      </c>
+      <c r="G56" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>130</v>
       </c>
-      <c r="D52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="C57" t="s">
         <v>131</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>132</v>
       </c>
-      <c r="D53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="C58" t="s">
         <v>133</v>
       </c>
-      <c r="B54" t="s">
-        <v>439</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>134</v>
       </c>
-      <c r="D54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="C59" t="s">
         <v>135</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>136</v>
       </c>
-      <c r="D55" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="C60" t="s">
         <v>137</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>138</v>
       </c>
-      <c r="D56" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="C61" t="s">
         <v>139</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>140</v>
       </c>
-      <c r="D57" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="C62" t="s">
         <v>141</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>142</v>
       </c>
-      <c r="D58" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="C63" t="s">
         <v>143</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>439</v>
+      </c>
+      <c r="G63" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>144</v>
       </c>
-      <c r="D59" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="C64" t="s">
         <v>145</v>
       </c>
-      <c r="C60" t="s">
-        <v>146</v>
-      </c>
-      <c r="D60" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>147</v>
-      </c>
-      <c r="C61" t="s">
-        <v>148</v>
-      </c>
-      <c r="D61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>149</v>
-      </c>
-      <c r="C62" t="s">
-        <v>150</v>
-      </c>
-      <c r="D62" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>151</v>
-      </c>
-      <c r="C63" t="s">
-        <v>152</v>
-      </c>
-      <c r="D63" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>153</v>
-      </c>
-      <c r="C64" t="s">
-        <v>154</v>
-      </c>
       <c r="D64" t="s">
         <v>12</v>
       </c>
       <c r="E64" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C65" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
       </c>
       <c r="E65" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C66" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C67" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
       </c>
       <c r="E67" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C68" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C69" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B70" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C70" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C71" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C72" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D72" t="s">
         <v>12</v>
       </c>
       <c r="E72" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C74" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C75" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C76" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C77" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C78" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C79" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D79" t="s">
         <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C80" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C81" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C82" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C83" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D83" t="s">
         <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C84" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C85" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C86" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
       </c>
       <c r="E86" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C87" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D87" t="s">
         <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C88" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D88" t="s">
         <v>12</v>
       </c>
       <c r="E88" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C89" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D89" t="s">
         <v>12</v>
       </c>
       <c r="E89" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C90" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D90" t="s">
         <v>12</v>
       </c>
       <c r="E90" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C91" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D91" t="s">
         <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C92" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D92" t="s">
         <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C93" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C94" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C95" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C96" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D96" t="s">
         <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>11</v>
       </c>
       <c r="C97" t="s">
+        <v>209</v>
+      </c>
+      <c r="D97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>210</v>
+      </c>
+      <c r="C98" t="s">
+        <v>211</v>
+      </c>
+      <c r="D98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>212</v>
+      </c>
+      <c r="C99" t="s">
+        <v>213</v>
+      </c>
+      <c r="D99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C100" t="s">
+        <v>215</v>
+      </c>
+      <c r="D100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" t="s">
+        <v>439</v>
+      </c>
+      <c r="G100" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>216</v>
+      </c>
+      <c r="C101" t="s">
+        <v>217</v>
+      </c>
+      <c r="D101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>218</v>
       </c>
-      <c r="D97" t="s">
-        <v>12</v>
-      </c>
-      <c r="E97" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="B102" t="s">
+        <v>434</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D102" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>220</v>
       </c>
-      <c r="D98" t="s">
-        <v>12</v>
-      </c>
-      <c r="E98" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="C103" t="s">
         <v>221</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D103" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>222</v>
       </c>
-      <c r="D99" t="s">
-        <v>12</v>
-      </c>
-      <c r="E99" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="C104" t="s">
         <v>223</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>224</v>
       </c>
-      <c r="D100" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="C105" t="s">
         <v>225</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>226</v>
       </c>
-      <c r="D101" t="s">
-        <v>12</v>
-      </c>
-      <c r="E101" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="C106" t="s">
         <v>227</v>
       </c>
-      <c r="B102" t="s">
-        <v>443</v>
-      </c>
-      <c r="C102" s="1" t="s">
+      <c r="D106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>228</v>
       </c>
-      <c r="D102" t="s">
-        <v>12</v>
-      </c>
-      <c r="E102" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="C107" t="s">
         <v>229</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>230</v>
       </c>
-      <c r="D103" t="s">
-        <v>12</v>
-      </c>
-      <c r="E103" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="C108" t="s">
         <v>231</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>232</v>
       </c>
-      <c r="D104" t="s">
-        <v>12</v>
-      </c>
-      <c r="E104" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="C109" t="s">
         <v>233</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>234</v>
       </c>
-      <c r="D105" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="C110" t="s">
         <v>235</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>236</v>
       </c>
-      <c r="D106" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="C111" t="s">
         <v>237</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>238</v>
       </c>
-      <c r="D107" t="s">
-        <v>12</v>
-      </c>
-      <c r="E107" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="C112" t="s">
         <v>239</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>240</v>
       </c>
-      <c r="D108" t="s">
-        <v>12</v>
-      </c>
-      <c r="E108" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="C113" t="s">
         <v>241</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>242</v>
       </c>
-      <c r="D109" t="s">
-        <v>12</v>
-      </c>
-      <c r="E109" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="C114" t="s">
         <v>243</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>244</v>
       </c>
-      <c r="D110" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="C115" t="s">
         <v>245</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>246</v>
       </c>
-      <c r="D111" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="C116" t="s">
         <v>247</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>248</v>
       </c>
-      <c r="D112" t="s">
-        <v>12</v>
-      </c>
-      <c r="E112" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="C117" t="s">
         <v>249</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>250</v>
       </c>
-      <c r="D113" t="s">
-        <v>12</v>
-      </c>
-      <c r="E113" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+      <c r="C118" t="s">
         <v>251</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>252</v>
       </c>
-      <c r="D114" t="s">
-        <v>12</v>
-      </c>
-      <c r="E114" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="C119" t="s">
         <v>253</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>254</v>
       </c>
-      <c r="D115" t="s">
-        <v>12</v>
-      </c>
-      <c r="E115" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="C120" t="s">
         <v>255</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D120" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>256</v>
       </c>
-      <c r="D116" t="s">
-        <v>12</v>
-      </c>
-      <c r="E116" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+      <c r="C121" t="s">
         <v>257</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D121" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>258</v>
       </c>
-      <c r="D117" t="s">
-        <v>12</v>
-      </c>
-      <c r="E117" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+      <c r="C122" t="s">
         <v>259</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" t="s">
+        <v>439</v>
+      </c>
+      <c r="G122" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>260</v>
       </c>
-      <c r="D118" t="s">
-        <v>12</v>
-      </c>
-      <c r="E118" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="B123" t="s">
+        <v>435</v>
+      </c>
+      <c r="C123" t="s">
         <v>261</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" t="s">
+        <v>439</v>
+      </c>
+      <c r="G123" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>262</v>
       </c>
-      <c r="D119" t="s">
-        <v>12</v>
-      </c>
-      <c r="E119" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+      <c r="C124" t="s">
         <v>263</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D124" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" t="s">
+        <v>439</v>
+      </c>
+      <c r="G124" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>264</v>
       </c>
-      <c r="D120" t="s">
-        <v>12</v>
-      </c>
-      <c r="E120" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+      <c r="C125" t="s">
         <v>265</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D125" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>266</v>
       </c>
-      <c r="D121" t="s">
-        <v>12</v>
-      </c>
-      <c r="E121" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+      <c r="C126" t="s">
         <v>267</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>268</v>
       </c>
-      <c r="D122" t="s">
-        <v>12</v>
-      </c>
-      <c r="E122" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+      <c r="C127" t="s">
         <v>269</v>
       </c>
-      <c r="B123" t="s">
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>270</v>
+      </c>
+      <c r="C128" t="s">
+        <v>271</v>
+      </c>
+      <c r="D128" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>272</v>
+      </c>
+      <c r="C129" t="s">
+        <v>273</v>
+      </c>
+      <c r="D129" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" t="s">
+        <v>439</v>
+      </c>
+      <c r="G129" t="s">
         <v>444</v>
       </c>
-      <c r="C123" t="s">
-        <v>270</v>
-      </c>
-      <c r="D123" t="s">
-        <v>12</v>
-      </c>
-      <c r="E123" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>271</v>
-      </c>
-      <c r="C124" t="s">
-        <v>272</v>
-      </c>
-      <c r="D124" t="s">
-        <v>12</v>
-      </c>
-      <c r="E124" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>273</v>
-      </c>
-      <c r="C125" t="s">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>274</v>
       </c>
-      <c r="D125" t="s">
-        <v>12</v>
-      </c>
-      <c r="E125" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+      <c r="C130" t="s">
         <v>275</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D130" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" t="s">
+        <v>439</v>
+      </c>
+      <c r="G130" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>276</v>
       </c>
-      <c r="D126" t="s">
-        <v>12</v>
-      </c>
-      <c r="E126" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+      <c r="C131" t="s">
         <v>277</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D131" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" t="s">
+        <v>439</v>
+      </c>
+      <c r="G131" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>278</v>
       </c>
-      <c r="D127" t="s">
-        <v>12</v>
-      </c>
-      <c r="E127" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+      <c r="C132" t="s">
         <v>279</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D132" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>280</v>
       </c>
-      <c r="D128" t="s">
-        <v>12</v>
-      </c>
-      <c r="E128" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+      <c r="C133" t="s">
         <v>281</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>282</v>
       </c>
-      <c r="D129" t="s">
-        <v>12</v>
-      </c>
-      <c r="E129" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+      <c r="C134" t="s">
         <v>283</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>284</v>
       </c>
-      <c r="D130" t="s">
-        <v>12</v>
-      </c>
-      <c r="E130" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+      <c r="C135" t="s">
         <v>285</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D135" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>286</v>
       </c>
-      <c r="D131" t="s">
-        <v>12</v>
-      </c>
-      <c r="E131" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+      <c r="C136" t="s">
         <v>287</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>288</v>
       </c>
-      <c r="D132" t="s">
-        <v>12</v>
-      </c>
-      <c r="E132" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+      <c r="C137" t="s">
         <v>289</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D137" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>290</v>
       </c>
-      <c r="D133" t="s">
-        <v>12</v>
-      </c>
-      <c r="E133" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+      <c r="C138" t="s">
         <v>291</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D138" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>292</v>
       </c>
-      <c r="D134" t="s">
-        <v>12</v>
-      </c>
-      <c r="E134" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+      <c r="C139" t="s">
         <v>293</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D139" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>294</v>
       </c>
-      <c r="D135" t="s">
-        <v>12</v>
-      </c>
-      <c r="E135" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+      <c r="C140" t="s">
         <v>295</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D140" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>296</v>
       </c>
-      <c r="D136" t="s">
-        <v>12</v>
-      </c>
-      <c r="E136" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+      <c r="C141" t="s">
         <v>297</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D141" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>298</v>
       </c>
-      <c r="D137" t="s">
-        <v>12</v>
-      </c>
-      <c r="E137" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+      <c r="C142" t="s">
         <v>299</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D142" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>300</v>
       </c>
-      <c r="D138" t="s">
-        <v>12</v>
-      </c>
-      <c r="E138" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+      <c r="C143" t="s">
         <v>301</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D143" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>302</v>
       </c>
-      <c r="D139" t="s">
-        <v>12</v>
-      </c>
-      <c r="E139" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+      <c r="C144" t="s">
         <v>303</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D144" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>304</v>
       </c>
-      <c r="D140" t="s">
-        <v>12</v>
-      </c>
-      <c r="E140" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+      <c r="C145" t="s">
         <v>305</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D145" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>306</v>
       </c>
-      <c r="D141" t="s">
-        <v>12</v>
-      </c>
-      <c r="E141" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+      <c r="C146" t="s">
         <v>307</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D146" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>308</v>
       </c>
-      <c r="D142" t="s">
-        <v>12</v>
-      </c>
-      <c r="E142" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+      <c r="C147" t="s">
         <v>309</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D147" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>310</v>
       </c>
-      <c r="D143" t="s">
-        <v>12</v>
-      </c>
-      <c r="E143" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+      <c r="C148" t="s">
         <v>311</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D148" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>312</v>
       </c>
-      <c r="D144" t="s">
-        <v>12</v>
-      </c>
-      <c r="E144" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+      <c r="C149" t="s">
         <v>313</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D149" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>314</v>
       </c>
-      <c r="D145" t="s">
-        <v>12</v>
-      </c>
-      <c r="E145" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+      <c r="C150" t="s">
         <v>315</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D150" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>316</v>
       </c>
-      <c r="D146" t="s">
-        <v>12</v>
-      </c>
-      <c r="E146" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+      <c r="C151" t="s">
         <v>317</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D151" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
         <v>318</v>
       </c>
-      <c r="D147" t="s">
-        <v>12</v>
-      </c>
-      <c r="E147" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+      <c r="C152" t="s">
         <v>319</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D152" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
         <v>320</v>
-      </c>
-      <c r="D148" t="s">
-        <v>12</v>
-      </c>
-      <c r="E148" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>321</v>
-      </c>
-      <c r="C149" t="s">
-        <v>322</v>
-      </c>
-      <c r="D149" t="s">
-        <v>12</v>
-      </c>
-      <c r="E149" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>323</v>
-      </c>
-      <c r="C150" t="s">
-        <v>324</v>
-      </c>
-      <c r="D150" t="s">
-        <v>12</v>
-      </c>
-      <c r="E150" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>325</v>
-      </c>
-      <c r="C151" t="s">
-        <v>326</v>
-      </c>
-      <c r="D151" t="s">
-        <v>12</v>
-      </c>
-      <c r="E151" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>327</v>
-      </c>
-      <c r="C152" t="s">
-        <v>328</v>
-      </c>
-      <c r="D152" t="s">
-        <v>12</v>
-      </c>
-      <c r="E152" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>329</v>
       </c>
       <c r="C153" t="e">
         <v>#VALUE!</v>
@@ -3920,166 +3998,172 @@
         <v>12</v>
       </c>
       <c r="E153" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
+        <v>321</v>
+      </c>
+      <c r="C154" t="s">
+        <v>322</v>
+      </c>
+      <c r="D154" t="s">
+        <v>12</v>
+      </c>
+      <c r="E154" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>323</v>
+      </c>
+      <c r="C155" t="s">
+        <v>324</v>
+      </c>
+      <c r="D155" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>325</v>
+      </c>
+      <c r="C156" t="s">
+        <v>326</v>
+      </c>
+      <c r="D156" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156" t="s">
+        <v>439</v>
+      </c>
+      <c r="G156" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>327</v>
+      </c>
+      <c r="C157" t="s">
+        <v>328</v>
+      </c>
+      <c r="D157" t="s">
+        <v>12</v>
+      </c>
+      <c r="E157" t="s">
+        <v>439</v>
+      </c>
+      <c r="G157" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>329</v>
+      </c>
+      <c r="C158" t="s">
         <v>330</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D158" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>331</v>
       </c>
-      <c r="D154" t="s">
-        <v>12</v>
-      </c>
-      <c r="E154" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+      <c r="C159" t="s">
         <v>332</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D159" t="s">
+        <v>12</v>
+      </c>
+      <c r="E159" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
         <v>333</v>
       </c>
-      <c r="D155" t="s">
-        <v>12</v>
-      </c>
-      <c r="E155" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+      <c r="C160" t="s">
         <v>334</v>
       </c>
-      <c r="C156" t="s">
-        <v>335</v>
-      </c>
-      <c r="D156" t="s">
-        <v>12</v>
-      </c>
-      <c r="E156" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>336</v>
-      </c>
-      <c r="C157" t="s">
-        <v>337</v>
-      </c>
-      <c r="D157" t="s">
-        <v>12</v>
-      </c>
-      <c r="E157" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>338</v>
-      </c>
-      <c r="C158" t="s">
-        <v>339</v>
-      </c>
-      <c r="D158" t="s">
-        <v>12</v>
-      </c>
-      <c r="E158" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>340</v>
-      </c>
-      <c r="C159" t="s">
-        <v>341</v>
-      </c>
-      <c r="D159" t="s">
-        <v>12</v>
-      </c>
-      <c r="E159" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>342</v>
-      </c>
-      <c r="C160" t="s">
-        <v>343</v>
-      </c>
       <c r="D160" t="s">
         <v>12</v>
       </c>
       <c r="E160" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C161" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="D161" t="s">
         <v>12</v>
       </c>
       <c r="E161" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C162" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="D162" t="s">
         <v>12</v>
       </c>
       <c r="E162" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C163" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="D163" t="s">
         <v>12</v>
       </c>
       <c r="E163" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C164" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="D164" t="s">
         <v>12</v>
       </c>
       <c r="E164" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C165" t="e">
         <v>#VALUE!</v>
@@ -4088,618 +4172,642 @@
         <v>12</v>
       </c>
       <c r="E165" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C166" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D166" t="s">
         <v>12</v>
       </c>
       <c r="E166" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C167" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D167" t="s">
         <v>12</v>
       </c>
       <c r="E167" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C168" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D168" t="s">
         <v>12</v>
       </c>
       <c r="E168" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C169" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D169" t="s">
         <v>12</v>
       </c>
       <c r="E169" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C170" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D170" t="s">
         <v>12</v>
       </c>
       <c r="E170" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C171" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D171" t="s">
         <v>12</v>
       </c>
       <c r="E171" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C172" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D172" t="s">
         <v>12</v>
       </c>
       <c r="E172" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C173" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D173" t="s">
         <v>12</v>
       </c>
       <c r="E173" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C174" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="D174" t="s">
         <v>12</v>
       </c>
       <c r="E174" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C175" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D175" t="s">
         <v>12</v>
       </c>
       <c r="E175" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>364</v>
+      </c>
+      <c r="C176" t="s">
+        <v>365</v>
+      </c>
+      <c r="D176" t="s">
+        <v>12</v>
+      </c>
+      <c r="E176" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>366</v>
+      </c>
+      <c r="C177" t="s">
+        <v>367</v>
+      </c>
+      <c r="D177" t="s">
+        <v>12</v>
+      </c>
+      <c r="E177" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>368</v>
+      </c>
+      <c r="C178" t="s">
+        <v>369</v>
+      </c>
+      <c r="D178" t="s">
+        <v>12</v>
+      </c>
+      <c r="E178" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>370</v>
+      </c>
+      <c r="C179" t="s">
+        <v>371</v>
+      </c>
+      <c r="D179" t="s">
+        <v>12</v>
+      </c>
+      <c r="E179" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>372</v>
+      </c>
+      <c r="C180" t="s">
         <v>373</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D180" t="s">
+        <v>12</v>
+      </c>
+      <c r="E180" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
         <v>374</v>
       </c>
-      <c r="D176" t="s">
-        <v>12</v>
-      </c>
-      <c r="E176" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+      <c r="C181" t="s">
         <v>375</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D181" t="s">
+        <v>12</v>
+      </c>
+      <c r="E181" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
         <v>376</v>
       </c>
-      <c r="D177" t="s">
-        <v>12</v>
-      </c>
-      <c r="E177" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+      <c r="C182" t="s">
         <v>377</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D182" t="s">
+        <v>12</v>
+      </c>
+      <c r="E182" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
         <v>378</v>
       </c>
-      <c r="D178" t="s">
-        <v>12</v>
-      </c>
-      <c r="E178" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+      <c r="C183" t="s">
         <v>379</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D183" t="s">
+        <v>12</v>
+      </c>
+      <c r="E183" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
         <v>380</v>
       </c>
-      <c r="D179" t="s">
-        <v>12</v>
-      </c>
-      <c r="E179" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+      <c r="C184" t="s">
         <v>381</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D184" t="s">
+        <v>12</v>
+      </c>
+      <c r="E184" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
         <v>382</v>
       </c>
-      <c r="D180" t="s">
-        <v>12</v>
-      </c>
-      <c r="E180" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+      <c r="C185" t="s">
         <v>383</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D185" t="s">
+        <v>12</v>
+      </c>
+      <c r="E185" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
         <v>384</v>
       </c>
-      <c r="D181" t="s">
-        <v>12</v>
-      </c>
-      <c r="E181" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+      <c r="B186" t="s">
+        <v>436</v>
+      </c>
+      <c r="C186" t="s">
         <v>385</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D186" t="s">
+        <v>12</v>
+      </c>
+      <c r="E186" t="s">
+        <v>439</v>
+      </c>
+      <c r="H186" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
         <v>386</v>
       </c>
-      <c r="D182" t="s">
-        <v>12</v>
-      </c>
-      <c r="E182" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+      <c r="C187" t="s">
         <v>387</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D187" t="s">
+        <v>12</v>
+      </c>
+      <c r="E187" t="s">
+        <v>439</v>
+      </c>
+      <c r="H187" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
         <v>388</v>
       </c>
-      <c r="D183" t="s">
-        <v>12</v>
-      </c>
-      <c r="E183" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
+      <c r="B188" t="s">
+        <v>437</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D188" t="s">
+        <v>12</v>
+      </c>
+      <c r="E188" t="s">
+        <v>439</v>
+      </c>
+      <c r="H188" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
         <v>390</v>
       </c>
-      <c r="D184" t="s">
-        <v>12</v>
-      </c>
-      <c r="E184" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+      <c r="C189" t="s">
         <v>391</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D189" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
         <v>392</v>
       </c>
-      <c r="D185" t="s">
-        <v>12</v>
-      </c>
-      <c r="E185" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+      <c r="C190" t="s">
         <v>393</v>
       </c>
-      <c r="B186" t="s">
-        <v>445</v>
-      </c>
-      <c r="C186" t="s">
+      <c r="D190" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
         <v>394</v>
       </c>
-      <c r="D186" t="s">
-        <v>12</v>
-      </c>
-      <c r="E186" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
+      <c r="C191" t="s">
         <v>395</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D191" t="s">
+        <v>12</v>
+      </c>
+      <c r="E191" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
         <v>396</v>
       </c>
-      <c r="D187" t="s">
-        <v>12</v>
-      </c>
-      <c r="E187" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
+      <c r="C192" t="s">
         <v>397</v>
       </c>
-      <c r="B188" t="s">
-        <v>446</v>
-      </c>
-      <c r="C188" s="1" t="s">
+      <c r="D192" t="s">
+        <v>12</v>
+      </c>
+      <c r="E192" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
         <v>398</v>
       </c>
-      <c r="D188" t="s">
-        <v>12</v>
-      </c>
-      <c r="E188" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
+      <c r="C193" t="s">
         <v>399</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D193" t="s">
+        <v>12</v>
+      </c>
+      <c r="E193" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
         <v>400</v>
       </c>
-      <c r="D189" t="s">
-        <v>12</v>
-      </c>
-      <c r="E189" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
+      <c r="C194" t="s">
         <v>401</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D194" t="s">
+        <v>12</v>
+      </c>
+      <c r="E194" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
         <v>402</v>
       </c>
-      <c r="D190" t="s">
-        <v>12</v>
-      </c>
-      <c r="E190" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
+      <c r="B195" t="s">
+        <v>438</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D195" t="s">
+        <v>12</v>
+      </c>
+      <c r="E195" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
         <v>404</v>
       </c>
-      <c r="D191" t="s">
-        <v>12</v>
-      </c>
-      <c r="E191" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
+      <c r="C196" t="s">
         <v>405</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D196" t="s">
+        <v>12</v>
+      </c>
+      <c r="E196" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
         <v>406</v>
       </c>
-      <c r="D192" t="s">
-        <v>12</v>
-      </c>
-      <c r="E192" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
+      <c r="C197" t="s">
         <v>407</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D197" t="s">
+        <v>12</v>
+      </c>
+      <c r="E197" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
         <v>408</v>
       </c>
-      <c r="D193" t="s">
-        <v>12</v>
-      </c>
-      <c r="E193" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
+      <c r="C198" t="s">
         <v>409</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D198" t="s">
+        <v>12</v>
+      </c>
+      <c r="E198" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
         <v>410</v>
       </c>
-      <c r="D194" t="s">
-        <v>12</v>
-      </c>
-      <c r="E194" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
+      <c r="C199" t="s">
         <v>411</v>
       </c>
-      <c r="B195" t="s">
-        <v>447</v>
-      </c>
-      <c r="C195" s="1" t="s">
+      <c r="D199" t="s">
+        <v>12</v>
+      </c>
+      <c r="E199" t="s">
+        <v>439</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
         <v>412</v>
       </c>
-      <c r="D195" t="s">
-        <v>12</v>
-      </c>
-      <c r="E195" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
+      <c r="C200" t="s">
         <v>413</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D200" t="s">
+        <v>12</v>
+      </c>
+      <c r="E200" t="s">
+        <v>439</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
         <v>414</v>
       </c>
-      <c r="D196" t="s">
-        <v>12</v>
-      </c>
-      <c r="E196" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
+      <c r="C201" t="s">
         <v>415</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D201" t="s">
+        <v>12</v>
+      </c>
+      <c r="E201" t="s">
+        <v>439</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
         <v>416</v>
       </c>
-      <c r="D197" t="s">
-        <v>12</v>
-      </c>
-      <c r="E197" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
+      <c r="C202" t="s">
         <v>417</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D202" t="s">
+        <v>12</v>
+      </c>
+      <c r="E202" t="s">
+        <v>439</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
         <v>418</v>
       </c>
-      <c r="D198" t="s">
-        <v>12</v>
-      </c>
-      <c r="E198" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
+      <c r="C203" t="s">
         <v>419</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D203" t="s">
+        <v>12</v>
+      </c>
+      <c r="E203" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
         <v>420</v>
       </c>
-      <c r="D199" t="s">
-        <v>12</v>
-      </c>
-      <c r="E199" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
+      <c r="C204" t="s">
         <v>421</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D204" t="s">
+        <v>12</v>
+      </c>
+      <c r="E204" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
         <v>422</v>
       </c>
-      <c r="D200" t="s">
-        <v>12</v>
-      </c>
-      <c r="E200" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
+      <c r="C205" t="s">
         <v>423</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D205" t="s">
+        <v>12</v>
+      </c>
+      <c r="E205" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
         <v>424</v>
       </c>
-      <c r="D201" t="s">
-        <v>12</v>
-      </c>
-      <c r="E201" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
+      <c r="C206" t="s">
         <v>425</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D206" t="s">
+        <v>12</v>
+      </c>
+      <c r="E206" t="s">
+        <v>439</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
         <v>426</v>
       </c>
-      <c r="D202" t="s">
-        <v>12</v>
-      </c>
-      <c r="E202" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
+      <c r="C207" t="s">
         <v>427</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D207" t="s">
+        <v>12</v>
+      </c>
+      <c r="E207" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
         <v>428</v>
       </c>
-      <c r="D203" t="s">
-        <v>12</v>
-      </c>
-      <c r="E203" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
+      <c r="C208" t="s">
         <v>429</v>
       </c>
-      <c r="C204" t="s">
-        <v>430</v>
-      </c>
-      <c r="D204" t="s">
-        <v>12</v>
-      </c>
-      <c r="E204" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>431</v>
-      </c>
-      <c r="C205" t="s">
-        <v>432</v>
-      </c>
-      <c r="D205" t="s">
-        <v>12</v>
-      </c>
-      <c r="E205" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>433</v>
-      </c>
-      <c r="C206" t="s">
-        <v>434</v>
-      </c>
-      <c r="D206" t="s">
-        <v>12</v>
-      </c>
-      <c r="E206" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>435</v>
-      </c>
-      <c r="C207" t="s">
-        <v>436</v>
-      </c>
-      <c r="D207" t="s">
-        <v>12</v>
-      </c>
-      <c r="E207" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>437</v>
-      </c>
-      <c r="C208" t="s">
-        <v>438</v>
-      </c>
       <c r="D208" t="s">
         <v>12</v>
       </c>
       <c r="E208" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -4711,7 +4819,7 @@
           <x14:formula1>
             <xm:f>'Vocabulary Metadata'!$G$2:$G$100</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:H6138</xm:sqref>
+          <xm:sqref>D2:G6138 H2:H198 H203:H205 H207:H6138</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4721,10 +4829,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251B0935-F8C3-480F-B897-E642A4205A23}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4737,12 +4845,12 @@
     <col min="7" max="7" width="32.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -4751,83 +4859,98 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F2" t="s">
+        <v>457</v>
+      </c>
       <c r="G2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>444</v>
+      </c>
+      <c r="H5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G15" t="s">
-        <v>27</v>
+        <v>449</v>
+      </c>
+      <c r="H9" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
